--- a/ExcelPracticalTask/wwwroot/Book1.xlsx
+++ b/ExcelPracticalTask/wwwroot/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumy.oza\source\repos\ExcelPracticalTaskWeb\ExcelPracticalTask\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3DC45B-85C4-444B-8359-2362CA009E75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC9849-8432-4CA8-AE4C-51F5B50A39B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{6E536E43-A620-406C-97E6-4B1918308FEB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
     <t>A106</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>AD480</t>
-  </si>
-  <si>
-    <t>FW678</t>
   </si>
 </sst>
 </file>
@@ -389,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03482ED0-C7C0-4A81-8EF5-ABF5CAD90BC1}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +408,7 @@
         <v>100</v>
       </c>
       <c r="D1">
-        <v>32.299999999999997</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1">
         <v>44928</v>
@@ -470,33 +467,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5" s="1">
-        <v>45006</v>
+        <v>44947</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1">
         <v>44947</v>
@@ -504,52 +501,35 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" s="1">
-        <v>44947</v>
+        <v>44948</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
-        <v>44948</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1">
         <v>44959</v>
       </c>
     </row>
